--- a/Team-Data/2012-13/12-2-2012-13.xlsx
+++ b/Team-Data/2012-13/12-2-2012-13.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -768,16 +835,16 @@
         <v>8</v>
       </c>
       <c r="AL2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AM2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AN2" t="n">
         <v>8</v>
       </c>
       <c r="AO2" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AP2" t="n">
         <v>27</v>
@@ -786,7 +853,7 @@
         <v>28</v>
       </c>
       <c r="AR2" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AS2" t="n">
         <v>24</v>
@@ -801,13 +868,13 @@
         <v>14</v>
       </c>
       <c r="AW2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AY2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ2" t="n">
         <v>2</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>12-2-2012-13</t>
+          <t>2012-12-02</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>-0.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE3" t="n">
         <v>10</v>
@@ -941,10 +1008,10 @@
         <v>12</v>
       </c>
       <c r="AI3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ3" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AK3" t="n">
         <v>5</v>
@@ -989,13 +1056,13 @@
         <v>27</v>
       </c>
       <c r="AY3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ3" t="n">
         <v>19</v>
       </c>
       <c r="BA3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BB3" t="n">
         <v>15</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>12-2-2012-13</t>
+          <t>2012-12-02</t>
         </is>
       </c>
     </row>
@@ -1108,10 +1175,10 @@
         <v>4.2</v>
       </c>
       <c r="AD4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AE4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF4" t="n">
         <v>6</v>
@@ -1120,10 +1187,10 @@
         <v>6</v>
       </c>
       <c r="AH4" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AI4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AJ4" t="n">
         <v>22</v>
@@ -1153,13 +1220,13 @@
         <v>8</v>
       </c>
       <c r="AS4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AT4" t="n">
         <v>12</v>
       </c>
       <c r="AU4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AV4" t="n">
         <v>4</v>
@@ -1183,7 +1250,7 @@
         <v>20</v>
       </c>
       <c r="BC4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>12-2-2012-13</t>
+          <t>2012-12-02</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-5.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AE5" t="n">
         <v>20</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>12-2-2012-13</t>
+          <t>2012-12-02</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1539,7 @@
         <v>2.4</v>
       </c>
       <c r="AD6" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AE6" t="n">
         <v>13</v>
@@ -1493,7 +1560,7 @@
         <v>21</v>
       </c>
       <c r="AK6" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL6" t="n">
         <v>30</v>
@@ -1538,7 +1605,7 @@
         <v>21</v>
       </c>
       <c r="AZ6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BA6" t="n">
         <v>5</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>12-2-2012-13</t>
+          <t>2012-12-02</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>-5</v>
       </c>
       <c r="AD7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE7" t="n">
         <v>26</v>
@@ -1678,7 +1745,7 @@
         <v>26</v>
       </c>
       <c r="AL7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AM7" t="n">
         <v>3</v>
@@ -1729,7 +1796,7 @@
         <v>17</v>
       </c>
       <c r="BC7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>12-2-2012-13</t>
+          <t>2012-12-02</t>
         </is>
       </c>
     </row>
@@ -1836,28 +1903,28 @@
         <v>-1.2</v>
       </c>
       <c r="AD8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE8" t="n">
         <v>13</v>
       </c>
       <c r="AF8" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG8" t="n">
         <v>17</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>16</v>
       </c>
       <c r="AH8" t="n">
         <v>12</v>
       </c>
       <c r="AI8" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AJ8" t="n">
         <v>16</v>
       </c>
       <c r="AK8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL8" t="n">
         <v>8</v>
@@ -1875,7 +1942,7 @@
         <v>20</v>
       </c>
       <c r="AQ8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AR8" t="n">
         <v>27</v>
@@ -1884,22 +1951,22 @@
         <v>8</v>
       </c>
       <c r="AT8" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AU8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AV8" t="n">
         <v>12</v>
       </c>
       <c r="AW8" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AX8" t="n">
         <v>11</v>
       </c>
       <c r="AY8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ8" t="n">
         <v>26</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>12-2-2012-13</t>
+          <t>2012-12-02</t>
         </is>
       </c>
     </row>
@@ -2018,16 +2085,16 @@
         <v>-0.2</v>
       </c>
       <c r="AD9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE9" t="n">
         <v>13</v>
       </c>
       <c r="AF9" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG9" t="n">
         <v>17</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>16</v>
       </c>
       <c r="AH9" t="n">
         <v>12</v>
@@ -2069,7 +2136,7 @@
         <v>2</v>
       </c>
       <c r="AU9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AV9" t="n">
         <v>25</v>
@@ -2084,7 +2151,7 @@
         <v>25</v>
       </c>
       <c r="AZ9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA9" t="n">
         <v>8</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>12-2-2012-13</t>
+          <t>2012-12-02</t>
         </is>
       </c>
     </row>
@@ -2203,7 +2270,7 @@
         <v>1</v>
       </c>
       <c r="AE10" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AF10" t="n">
         <v>27</v>
@@ -2221,13 +2288,13 @@
         <v>24</v>
       </c>
       <c r="AK10" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL10" t="n">
         <v>24</v>
       </c>
       <c r="AM10" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AN10" t="n">
         <v>9</v>
@@ -2251,7 +2318,7 @@
         <v>17</v>
       </c>
       <c r="AU10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AV10" t="n">
         <v>23</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>12-2-2012-13</t>
+          <t>2012-12-02</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>0.1</v>
       </c>
       <c r="AD11" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AE11" t="n">
         <v>7</v>
@@ -2433,7 +2500,7 @@
         <v>4</v>
       </c>
       <c r="AU11" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AV11" t="n">
         <v>26</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>12-2-2012-13</t>
+          <t>2012-12-02</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2631,7 @@
         <v>1.1</v>
       </c>
       <c r="AD12" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AE12" t="n">
         <v>13</v>
@@ -2603,13 +2670,13 @@
         <v>4</v>
       </c>
       <c r="AQ12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AR12" t="n">
         <v>11</v>
       </c>
       <c r="AS12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AT12" t="n">
         <v>6</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>12-2-2012-13</t>
+          <t>2012-12-02</t>
         </is>
       </c>
     </row>
@@ -2746,16 +2813,16 @@
         <v>-1.1</v>
       </c>
       <c r="AD13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE13" t="n">
         <v>13</v>
       </c>
       <c r="AF13" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG13" t="n">
         <v>17</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>16</v>
       </c>
       <c r="AH13" t="n">
         <v>6</v>
@@ -2764,7 +2831,7 @@
         <v>29</v>
       </c>
       <c r="AJ13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AK13" t="n">
         <v>28</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>12-2-2012-13</t>
+          <t>2012-12-02</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2995,7 @@
         <v>6</v>
       </c>
       <c r="AD14" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AE14" t="n">
         <v>7</v>
@@ -2940,7 +3007,7 @@
         <v>8</v>
       </c>
       <c r="AH14" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AI14" t="n">
         <v>6</v>
@@ -2973,16 +3040,16 @@
         <v>23</v>
       </c>
       <c r="AS14" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AT14" t="n">
         <v>24</v>
       </c>
       <c r="AU14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV14" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AW14" t="n">
         <v>1</v>
@@ -2991,7 +3058,7 @@
         <v>8</v>
       </c>
       <c r="AY14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AZ14" t="n">
         <v>28</v>
@@ -3000,7 +3067,7 @@
         <v>12</v>
       </c>
       <c r="BB14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BC14" t="n">
         <v>5</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>12-2-2012-13</t>
+          <t>2012-12-02</t>
         </is>
       </c>
     </row>
@@ -3032,16 +3099,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
       </c>
       <c r="F15" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G15" t="n">
-        <v>0.471</v>
+        <v>0.5</v>
       </c>
       <c r="H15" t="n">
         <v>48</v>
@@ -3050,34 +3117,34 @@
         <v>35.8</v>
       </c>
       <c r="J15" t="n">
-        <v>78.2</v>
+        <v>77.8</v>
       </c>
       <c r="K15" t="n">
-        <v>0.457</v>
+        <v>0.46</v>
       </c>
       <c r="L15" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="M15" t="n">
-        <v>22.4</v>
+        <v>22.7</v>
       </c>
       <c r="N15" t="n">
-        <v>0.374</v>
+        <v>0.375</v>
       </c>
       <c r="O15" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="P15" t="n">
-        <v>31.3</v>
+        <v>30.8</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.665</v>
+        <v>0.667</v>
       </c>
       <c r="R15" t="n">
         <v>12.9</v>
       </c>
       <c r="S15" t="n">
-        <v>33.1</v>
+        <v>33</v>
       </c>
       <c r="T15" t="n">
         <v>45.9</v>
@@ -3086,58 +3153,58 @@
         <v>21.1</v>
       </c>
       <c r="V15" t="n">
-        <v>16.7</v>
+        <v>17.1</v>
       </c>
       <c r="W15" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="X15" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>4.8</v>
+        <v>4.4</v>
       </c>
       <c r="Z15" t="n">
-        <v>19.5</v>
+        <v>19.8</v>
       </c>
       <c r="AA15" t="n">
-        <v>24.7</v>
+        <v>24.5</v>
       </c>
       <c r="AB15" t="n">
-        <v>100.7</v>
+        <v>100.6</v>
       </c>
       <c r="AC15" t="n">
-        <v>3.8</v>
+        <v>4.6</v>
       </c>
       <c r="AD15" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="AE15" t="n">
         <v>13</v>
       </c>
       <c r="AF15" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AG15" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AH15" t="n">
         <v>28</v>
       </c>
       <c r="AI15" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ15" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AK15" t="n">
         <v>6</v>
       </c>
       <c r="AL15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AM15" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AN15" t="n">
         <v>7</v>
@@ -3161,31 +3228,31 @@
         <v>3</v>
       </c>
       <c r="AU15" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV15" t="n">
         <v>30</v>
       </c>
       <c r="AW15" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AX15" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AY15" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ15" t="n">
         <v>11</v>
-      </c>
-      <c r="AZ15" t="n">
-        <v>10</v>
       </c>
       <c r="BA15" t="n">
         <v>1</v>
       </c>
       <c r="BB15" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BC15" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>12-2-2012-13</t>
+          <t>2012-12-02</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>7.9</v>
       </c>
       <c r="AD16" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AE16" t="n">
         <v>3</v>
@@ -3307,19 +3374,19 @@
         <v>19</v>
       </c>
       <c r="AI16" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ16" t="n">
         <v>10</v>
       </c>
       <c r="AK16" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL16" t="n">
         <v>24</v>
       </c>
       <c r="AM16" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AN16" t="n">
         <v>9</v>
@@ -3343,7 +3410,7 @@
         <v>16</v>
       </c>
       <c r="AU16" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AV16" t="n">
         <v>8</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>12-2-2012-13</t>
+          <t>2012-12-02</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>5.1</v>
       </c>
       <c r="AD17" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AE17" t="n">
         <v>3</v>
@@ -3528,13 +3595,13 @@
         <v>4</v>
       </c>
       <c r="AV17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AX17" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AY17" t="n">
         <v>2</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>12-2-2012-13</t>
+          <t>2012-12-02</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-0.6</v>
       </c>
       <c r="AD18" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AE18" t="n">
         <v>13</v>
@@ -3677,7 +3744,7 @@
         <v>1</v>
       </c>
       <c r="AK18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL18" t="n">
         <v>26</v>
@@ -3698,7 +3765,7 @@
         <v>18</v>
       </c>
       <c r="AR18" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AS18" t="n">
         <v>12</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>12-2-2012-13</t>
+          <t>2012-12-02</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>-0.1</v>
       </c>
       <c r="AD19" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AE19" t="n">
         <v>20</v>
@@ -3892,7 +3959,7 @@
         <v>23</v>
       </c>
       <c r="AV19" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AW19" t="n">
         <v>21</v>
@@ -3904,13 +3971,13 @@
         <v>23</v>
       </c>
       <c r="AZ19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BA19" t="n">
         <v>2</v>
       </c>
       <c r="BB19" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BC19" t="n">
         <v>14</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>12-2-2012-13</t>
+          <t>2012-12-02</t>
         </is>
       </c>
     </row>
@@ -4020,13 +4087,13 @@
         <v>-6.8</v>
       </c>
       <c r="AD20" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AE20" t="n">
         <v>26</v>
       </c>
       <c r="AF20" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG20" t="n">
         <v>26</v>
@@ -4041,7 +4108,7 @@
         <v>27</v>
       </c>
       <c r="AK20" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AL20" t="n">
         <v>11</v>
@@ -4062,16 +4129,16 @@
         <v>4</v>
       </c>
       <c r="AR20" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AS20" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AT20" t="n">
         <v>23</v>
       </c>
       <c r="AU20" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AV20" t="n">
         <v>13</v>
@@ -4080,7 +4147,7 @@
         <v>29</v>
       </c>
       <c r="AX20" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AY20" t="n">
         <v>28</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>12-2-2012-13</t>
+          <t>2012-12-02</t>
         </is>
       </c>
     </row>
@@ -4124,28 +4191,28 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F21" t="n">
         <v>4</v>
       </c>
       <c r="G21" t="n">
-        <v>0.75</v>
+        <v>0.733</v>
       </c>
       <c r="H21" t="n">
         <v>48.3</v>
       </c>
       <c r="I21" t="n">
-        <v>37.6</v>
+        <v>37.4</v>
       </c>
       <c r="J21" t="n">
-        <v>82.2</v>
+        <v>81.7</v>
       </c>
       <c r="K21" t="n">
-        <v>0.457</v>
+        <v>0.458</v>
       </c>
       <c r="L21" t="n">
         <v>11.7</v>
@@ -4157,55 +4224,55 @@
         <v>0.416</v>
       </c>
       <c r="O21" t="n">
-        <v>16.1</v>
+        <v>16.2</v>
       </c>
       <c r="P21" t="n">
-        <v>20.7</v>
+        <v>20.9</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.776</v>
+        <v>0.774</v>
       </c>
       <c r="R21" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="S21" t="n">
-        <v>29.8</v>
+        <v>30</v>
       </c>
       <c r="T21" t="n">
-        <v>39.8</v>
+        <v>39.6</v>
       </c>
       <c r="U21" t="n">
         <v>20.1</v>
       </c>
       <c r="V21" t="n">
-        <v>11.2</v>
+        <v>11.4</v>
       </c>
       <c r="W21" t="n">
-        <v>9.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="X21" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Y21" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="Z21" t="n">
-        <v>18.6</v>
+        <v>19</v>
       </c>
       <c r="AA21" t="n">
-        <v>19.4</v>
+        <v>19.1</v>
       </c>
       <c r="AB21" t="n">
-        <v>102.9</v>
+        <v>102.7</v>
       </c>
       <c r="AC21" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AD21" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AE21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AF21" t="n">
         <v>3</v>
@@ -4214,13 +4281,13 @@
         <v>5</v>
       </c>
       <c r="AH21" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AI21" t="n">
         <v>7</v>
       </c>
       <c r="AJ21" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK21" t="n">
         <v>7</v>
@@ -4241,16 +4308,16 @@
         <v>23</v>
       </c>
       <c r="AQ21" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AR21" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AS21" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AT21" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AU21" t="n">
         <v>24</v>
@@ -4259,19 +4326,19 @@
         <v>1</v>
       </c>
       <c r="AW21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX21" t="n">
         <v>28</v>
       </c>
       <c r="AY21" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AZ21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BA21" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BB21" t="n">
         <v>4</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>12-2-2012-13</t>
+          <t>2012-12-02</t>
         </is>
       </c>
     </row>
@@ -4396,7 +4463,7 @@
         <v>3</v>
       </c>
       <c r="AH22" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AI22" t="n">
         <v>8</v>
@@ -4426,10 +4493,10 @@
         <v>1</v>
       </c>
       <c r="AR22" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AS22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AT22" t="n">
         <v>11</v>
@@ -4441,7 +4508,7 @@
         <v>28</v>
       </c>
       <c r="AW22" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AX22" t="n">
         <v>1</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>12-2-2012-13</t>
+          <t>2012-12-02</t>
         </is>
       </c>
     </row>
@@ -4488,85 +4555,85 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E23" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F23" t="n">
         <v>10</v>
       </c>
       <c r="G23" t="n">
-        <v>0.375</v>
+        <v>0.333</v>
       </c>
       <c r="H23" t="n">
         <v>48.3</v>
       </c>
       <c r="I23" t="n">
-        <v>36.9</v>
+        <v>36.5</v>
       </c>
       <c r="J23" t="n">
-        <v>83.5</v>
+        <v>83.3</v>
       </c>
       <c r="K23" t="n">
-        <v>0.442</v>
+        <v>0.438</v>
       </c>
       <c r="L23" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="M23" t="n">
-        <v>15.7</v>
+        <v>15.2</v>
       </c>
       <c r="N23" t="n">
-        <v>0.343</v>
+        <v>0.342</v>
       </c>
       <c r="O23" t="n">
-        <v>13.3</v>
+        <v>12.9</v>
       </c>
       <c r="P23" t="n">
-        <v>17.1</v>
+        <v>16.9</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.777</v>
+        <v>0.763</v>
       </c>
       <c r="R23" t="n">
-        <v>10.6</v>
+        <v>10.9</v>
       </c>
       <c r="S23" t="n">
-        <v>32.6</v>
+        <v>32.2</v>
       </c>
       <c r="T23" t="n">
-        <v>43.2</v>
+        <v>43.1</v>
       </c>
       <c r="U23" t="n">
-        <v>22.3</v>
+        <v>21.5</v>
       </c>
       <c r="V23" t="n">
-        <v>15.4</v>
+        <v>15.6</v>
       </c>
       <c r="W23" t="n">
         <v>5.7</v>
       </c>
       <c r="X23" t="n">
-        <v>4.8</v>
+        <v>4.4</v>
       </c>
       <c r="Y23" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="Z23" t="n">
-        <v>20.6</v>
+        <v>20.1</v>
       </c>
       <c r="AA23" t="n">
         <v>16.8</v>
       </c>
       <c r="AB23" t="n">
-        <v>92.5</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="AC23" t="n">
-        <v>-4.3</v>
+        <v>-5.3</v>
       </c>
       <c r="AD23" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AE23" t="n">
         <v>24</v>
@@ -4578,70 +4645,70 @@
         <v>24</v>
       </c>
       <c r="AH23" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AI23" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AJ23" t="n">
         <v>11</v>
       </c>
       <c r="AK23" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AL23" t="n">
         <v>28</v>
       </c>
       <c r="AM23" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AN23" t="n">
         <v>20</v>
       </c>
       <c r="AO23" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AP23" t="n">
         <v>30</v>
       </c>
       <c r="AQ23" t="n">
+        <v>13</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>19</v>
+      </c>
+      <c r="AS23" t="n">
         <v>7</v>
       </c>
-      <c r="AR23" t="n">
-        <v>21</v>
-      </c>
-      <c r="AS23" t="n">
-        <v>5</v>
-      </c>
       <c r="AT23" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AU23" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AV23" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AW23" t="n">
         <v>30</v>
       </c>
       <c r="AX23" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AY23" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AZ23" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="BA23" t="n">
         <v>30</v>
       </c>
       <c r="BB23" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BC23" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>12-2-2012-13</t>
+          <t>2012-12-02</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>-0.8</v>
       </c>
       <c r="AD24" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE24" t="n">
         <v>7</v>
@@ -4787,7 +4854,7 @@
         <v>28</v>
       </c>
       <c r="AQ24" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AR24" t="n">
         <v>22</v>
@@ -4811,7 +4878,7 @@
         <v>10</v>
       </c>
       <c r="AY24" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AZ24" t="n">
         <v>7</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>12-2-2012-13</t>
+          <t>2012-12-02</t>
         </is>
       </c>
     </row>
@@ -4852,16 +4919,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E25" t="n">
         <v>7</v>
       </c>
       <c r="F25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G25" t="n">
-        <v>0.389</v>
+        <v>0.412</v>
       </c>
       <c r="H25" t="n">
         <v>48.6</v>
@@ -4870,79 +4937,79 @@
         <v>38.5</v>
       </c>
       <c r="J25" t="n">
-        <v>86.09999999999999</v>
+        <v>86.5</v>
       </c>
       <c r="K25" t="n">
-        <v>0.447</v>
+        <v>0.445</v>
       </c>
       <c r="L25" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="M25" t="n">
-        <v>18.2</v>
+        <v>17.9</v>
       </c>
       <c r="N25" t="n">
         <v>0.339</v>
       </c>
       <c r="O25" t="n">
-        <v>15.2</v>
+        <v>15.4</v>
       </c>
       <c r="P25" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.745</v>
+        <v>0.748</v>
       </c>
       <c r="R25" t="n">
         <v>11.9</v>
       </c>
       <c r="S25" t="n">
-        <v>29.4</v>
+        <v>29.1</v>
       </c>
       <c r="T25" t="n">
-        <v>41.3</v>
+        <v>41.1</v>
       </c>
       <c r="U25" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="V25" t="n">
-        <v>14</v>
+        <v>13.8</v>
       </c>
       <c r="W25" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="X25" t="n">
-        <v>6.1</v>
+        <v>6.5</v>
       </c>
       <c r="Y25" t="n">
         <v>5.2</v>
       </c>
       <c r="Z25" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="AA25" t="n">
-        <v>19.7</v>
+        <v>20.1</v>
       </c>
       <c r="AB25" t="n">
         <v>98.40000000000001</v>
       </c>
       <c r="AC25" t="n">
-        <v>-4.3</v>
+        <v>-4.1</v>
       </c>
       <c r="AD25" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE25" t="n">
         <v>20</v>
       </c>
       <c r="AF25" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AG25" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH25" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AI25" t="n">
         <v>5</v>
@@ -4951,10 +5018,10 @@
         <v>2</v>
       </c>
       <c r="AK25" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AL25" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AM25" t="n">
         <v>24</v>
@@ -4975,37 +5042,37 @@
         <v>13</v>
       </c>
       <c r="AS25" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AT25" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AU25" t="n">
         <v>18</v>
       </c>
       <c r="AV25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW25" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AX25" t="n">
         <v>9</v>
       </c>
       <c r="AY25" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AZ25" t="n">
         <v>21</v>
       </c>
       <c r="BA25" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="BB25" t="n">
         <v>13</v>
       </c>
       <c r="BC25" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>12-2-2012-13</t>
+          <t>2012-12-02</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>-4.2</v>
       </c>
       <c r="AD26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE26" t="n">
         <v>20</v>
@@ -5139,7 +5206,7 @@
         <v>7</v>
       </c>
       <c r="AM26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AN26" t="n">
         <v>12</v>
@@ -5175,10 +5242,10 @@
         <v>21</v>
       </c>
       <c r="AY26" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AZ26" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BA26" t="n">
         <v>12</v>
@@ -5187,7 +5254,7 @@
         <v>14</v>
       </c>
       <c r="BC26" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>12-2-2012-13</t>
+          <t>2012-12-02</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>-6.9</v>
       </c>
       <c r="AD27" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AE27" t="n">
         <v>26</v>
@@ -5318,7 +5385,7 @@
         <v>22</v>
       </c>
       <c r="AL27" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AM27" t="n">
         <v>25</v>
@@ -5342,7 +5409,7 @@
         <v>28</v>
       </c>
       <c r="AT27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AU27" t="n">
         <v>30</v>
@@ -5351,7 +5418,7 @@
         <v>10</v>
       </c>
       <c r="AW27" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AX27" t="n">
         <v>25</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>12-2-2012-13</t>
+          <t>2012-12-02</t>
         </is>
       </c>
     </row>
@@ -5494,7 +5561,7 @@
         <v>2</v>
       </c>
       <c r="AJ28" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK28" t="n">
         <v>4</v>
@@ -5515,13 +5582,13 @@
         <v>21</v>
       </c>
       <c r="AQ28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR28" t="n">
         <v>28</v>
       </c>
       <c r="AS28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AT28" t="n">
         <v>18</v>
@@ -5533,13 +5600,13 @@
         <v>15</v>
       </c>
       <c r="AW28" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AX28" t="n">
         <v>20</v>
       </c>
       <c r="AY28" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ28" t="n">
         <v>1</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>12-2-2012-13</t>
+          <t>2012-12-02</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>-5</v>
       </c>
       <c r="AD29" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE29" t="n">
         <v>26</v>
@@ -5697,13 +5764,13 @@
         <v>15</v>
       </c>
       <c r="AQ29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AR29" t="n">
         <v>18</v>
       </c>
       <c r="AS29" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AT29" t="n">
         <v>21</v>
@@ -5718,7 +5785,7 @@
         <v>24</v>
       </c>
       <c r="AX29" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AY29" t="n">
         <v>22</v>
@@ -5727,13 +5794,13 @@
         <v>30</v>
       </c>
       <c r="BA29" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BB29" t="n">
         <v>18</v>
       </c>
       <c r="BC29" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>12-2-2012-13</t>
+          <t>2012-12-02</t>
         </is>
       </c>
     </row>
@@ -5846,7 +5913,7 @@
         <v>10</v>
       </c>
       <c r="AF30" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG30" t="n">
         <v>14</v>
@@ -5855,13 +5922,13 @@
         <v>7</v>
       </c>
       <c r="AI30" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AJ30" t="n">
         <v>9</v>
       </c>
       <c r="AK30" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AL30" t="n">
         <v>16</v>
@@ -5885,7 +5952,7 @@
         <v>2</v>
       </c>
       <c r="AS30" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AT30" t="n">
         <v>8</v>
@@ -5894,7 +5961,7 @@
         <v>8</v>
       </c>
       <c r="AV30" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AW30" t="n">
         <v>16</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>12-2-2012-13</t>
+          <t>2012-12-02</t>
         </is>
       </c>
     </row>
@@ -6070,7 +6137,7 @@
         <v>16</v>
       </c>
       <c r="AT31" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AU31" t="n">
         <v>26</v>
@@ -6091,7 +6158,7 @@
         <v>24</v>
       </c>
       <c r="BA31" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BB31" t="n">
         <v>30</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>12-2-2012-13</t>
+          <t>2012-12-02</t>
         </is>
       </c>
     </row>
